--- a/Graphs/target_tank_pressure_sweep_results.xlsx
+++ b/Graphs/target_tank_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="10">
   <si>
     <t>UAM target tank pressure (bar)</t>
   </si>
@@ -94,15 +94,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="27" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -139,28 +139,28 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>33.669510559390702</v>
+        <v>32.989875150457472</v>
       </c>
       <c r="C2" s="0">
-        <v>15.823329153231697</v>
+        <v>16.614352328263298</v>
       </c>
       <c r="D2" s="0">
-        <v>0.46996017733374629</v>
+        <v>0.50361973946521299</v>
       </c>
       <c r="E2" s="0">
-        <v>30.567593571102975</v>
+        <v>29.399938718201128</v>
       </c>
       <c r="F2" s="0">
-        <v>15.381690859275622</v>
+        <v>15.211483602584858</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50320254433821965</v>
+        <v>0.51739847992157961</v>
       </c>
       <c r="H2" s="0">
-        <v>301</v>
+        <v>192.44879788025418</v>
       </c>
       <c r="I2" s="0">
-        <v>269.60000000000002</v>
+        <v>148.45766705742847</v>
       </c>
     </row>
     <row r="3">
@@ -168,28 +168,28 @@
         <v>0.22222222222222224</v>
       </c>
       <c r="B3" s="0">
-        <v>33.335184430144608</v>
+        <v>32.968282087497208</v>
       </c>
       <c r="C3" s="0">
-        <v>15.798179524300423</v>
+        <v>16.521393943037374</v>
       </c>
       <c r="D3" s="0">
-        <v>0.47391906762676611</v>
+        <v>0.50112996179752112</v>
       </c>
       <c r="E3" s="0">
-        <v>30.250878512130875</v>
+        <v>29.236863233910036</v>
       </c>
       <c r="F3" s="0">
-        <v>14.816724080450118</v>
+        <v>15.057335772990879</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48979483602462914</v>
+        <v>0.51501201248999939</v>
       </c>
       <c r="H3" s="0">
-        <v>297.53157697230432</v>
+        <v>191.5</v>
       </c>
       <c r="I3" s="0">
-        <v>266.00970830806722</v>
+        <v>147.54340078256496</v>
       </c>
     </row>
     <row r="4">
@@ -197,28 +197,28 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="B4" s="0">
-        <v>33.081378387780759</v>
+        <v>32.9688577103584</v>
       </c>
       <c r="C4" s="0">
-        <v>15.735059853742571</v>
+        <v>16.407514864934925</v>
       </c>
       <c r="D4" s="0">
-        <v>0.47564704436725097</v>
+        <v>0.49766707142479766</v>
       </c>
       <c r="E4" s="0">
-        <v>29.967733937295762</v>
+        <v>29.037665405004795</v>
       </c>
       <c r="F4" s="0">
-        <v>14.727055866850764</v>
+        <v>14.956009650200581</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49143041304576224</v>
+        <v>0.51505551295535057</v>
       </c>
       <c r="H4" s="0">
-        <v>296.04175688085218</v>
+        <v>191.98467517260343</v>
       </c>
       <c r="I4" s="0">
-        <v>264.92272603294373</v>
+        <v>147.56277397090361</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/target_tank_pressure_sweep_results.xlsx
+++ b/Graphs/target_tank_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="10">
   <si>
     <t>UAM target tank pressure (bar)</t>
   </si>
@@ -139,28 +139,28 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>32.989875150457472</v>
+        <v>33.762646712453936</v>
       </c>
       <c r="C2" s="0">
-        <v>16.614352328263298</v>
+        <v>16.356574130109916</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50361973946521299</v>
+        <v>0.48445769875252437</v>
       </c>
       <c r="E2" s="0">
-        <v>29.399938718201128</v>
+        <v>30.838977303154856</v>
       </c>
       <c r="F2" s="0">
-        <v>15.211483602584858</v>
+        <v>15.683109557138513</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51739847992157961</v>
+        <v>0.50854830246053961</v>
       </c>
       <c r="H2" s="0">
-        <v>192.44879788025418</v>
+        <v>329.30000000000001</v>
       </c>
       <c r="I2" s="0">
-        <v>148.45766705742847</v>
+        <v>236.00000000000006</v>
       </c>
     </row>
     <row r="3">
@@ -168,28 +168,28 @@
         <v>0.22222222222222224</v>
       </c>
       <c r="B3" s="0">
-        <v>32.968282087497208</v>
+        <v>33.548529061743452</v>
       </c>
       <c r="C3" s="0">
-        <v>16.521393943037374</v>
+        <v>16.19508627363799</v>
       </c>
       <c r="D3" s="0">
-        <v>0.50112996179752112</v>
+        <v>0.48273610577179693</v>
       </c>
       <c r="E3" s="0">
-        <v>29.236863233910036</v>
+        <v>30.706172639245899</v>
       </c>
       <c r="F3" s="0">
-        <v>15.057335772990879</v>
+        <v>15.469887142116356</v>
       </c>
       <c r="G3" s="0">
-        <v>0.51501201248999939</v>
+        <v>0.50380382224335318</v>
       </c>
       <c r="H3" s="0">
-        <v>191.5</v>
+        <v>325.30000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>147.54340078256496</v>
+        <v>235.20000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -197,28 +197,28 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="B4" s="0">
-        <v>32.9688577103584</v>
+        <v>33.406646506821239</v>
       </c>
       <c r="C4" s="0">
-        <v>16.407514864934925</v>
+        <v>16.116266148340188</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49766707142479766</v>
+        <v>0.48242693695847139</v>
       </c>
       <c r="E4" s="0">
-        <v>29.037665405004795</v>
+        <v>30.506196411665734</v>
       </c>
       <c r="F4" s="0">
-        <v>14.956009650200581</v>
+        <v>15.078724963656631</v>
       </c>
       <c r="G4" s="0">
-        <v>0.51505551295535057</v>
+        <v>0.49428400578613091</v>
       </c>
       <c r="H4" s="0">
-        <v>191.98467517260343</v>
+        <v>323</v>
       </c>
       <c r="I4" s="0">
-        <v>147.56277397090361</v>
+        <v>234.80000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -226,28 +226,28 @@
         <v>0.26666666666666672</v>
       </c>
       <c r="B5" s="0">
-        <v>33.106932599489951</v>
+        <v>33.373382987540182</v>
       </c>
       <c r="C5" s="0">
-        <v>16.065747591762836</v>
+        <v>16.550343932563297</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48526838128188132</v>
+        <v>0.49591448187144532</v>
       </c>
       <c r="E5" s="0">
-        <v>29.707648513053364</v>
+        <v>30.335389903797534</v>
       </c>
       <c r="F5" s="0">
-        <v>14.629395082841269</v>
+        <v>14.494145306877209</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49244540766709283</v>
+        <v>0.47779657201843845</v>
       </c>
       <c r="H5" s="0">
-        <v>296.90000000000003</v>
+        <v>323.20000000000005</v>
       </c>
       <c r="I5" s="0">
-        <v>264.98062396503281</v>
+        <v>236.10000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -255,28 +255,28 @@
         <v>0.28888888888888892</v>
       </c>
       <c r="B6" s="0">
-        <v>32.92205021782452</v>
+        <v>33.40805339190721</v>
       </c>
       <c r="C6" s="0">
-        <v>16.350312773134437</v>
+        <v>16.581385612385684</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49663713726680725</v>
+        <v>0.49632899642103573</v>
       </c>
       <c r="E6" s="0">
-        <v>29.465031255943224</v>
+        <v>30.080264672843789</v>
       </c>
       <c r="F6" s="0">
-        <v>14.570640839852569</v>
+        <v>14.313056660840751</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49450620680789564</v>
+        <v>0.47582881389213499</v>
       </c>
       <c r="H6" s="0">
-        <v>298.56555503052215</v>
+        <v>323.20000000000005</v>
       </c>
       <c r="I6" s="0">
-        <v>265.38374679724859</v>
+        <v>233.79999999999995</v>
       </c>
     </row>
     <row r="7">
@@ -284,28 +284,28 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="B7" s="0">
-        <v>32.76347854202821</v>
+        <v>33.320096608885798</v>
       </c>
       <c r="C7" s="0">
-        <v>16.103243382330088</v>
+        <v>16.140870485792579</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49149980706942431</v>
+        <v>0.48441847799109122</v>
       </c>
       <c r="E7" s="0">
-        <v>29.258214291026377</v>
+        <v>29.944541511736951</v>
       </c>
       <c r="F7" s="0">
-        <v>14.511151690842514</v>
+        <v>14.293936764808038</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49596846706031367</v>
+        <v>0.47734699024212607</v>
       </c>
       <c r="H7" s="0">
-        <v>302.03001311271021</v>
+        <v>322.20000000000005</v>
       </c>
       <c r="I7" s="0">
-        <v>266.96421108409936</v>
+        <v>228.10000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -313,28 +313,28 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="B8" s="0">
-        <v>32.621092592878774</v>
+        <v>33.080886265203276</v>
       </c>
       <c r="C8" s="0">
-        <v>15.66665825809555</v>
+        <v>16.218665934453472</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48026160415962282</v>
+        <v>0.49027301760997155</v>
       </c>
       <c r="E8" s="0">
-        <v>29.155749985968086</v>
+        <v>29.845887689180969</v>
       </c>
       <c r="F8" s="0">
-        <v>14.400510255879471</v>
+        <v>14.289319855334032</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49391664638399174</v>
+        <v>0.47877014093683201</v>
       </c>
       <c r="H8" s="0">
-        <v>302</v>
+        <v>321.90000000000003</v>
       </c>
       <c r="I8" s="0">
-        <v>271.04188315006536</v>
+        <v>223.30000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -342,28 +342,28 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="B9" s="0">
-        <v>32.469483257557528</v>
+        <v>32.995520614791133</v>
       </c>
       <c r="C9" s="0">
-        <v>15.519886290387809</v>
+        <v>16.382476195827845</v>
       </c>
       <c r="D9" s="0">
-        <v>0.47798377840754314</v>
+        <v>0.49650606781103368</v>
       </c>
       <c r="E9" s="0">
-        <v>29.010560111644473</v>
+        <v>29.763039616975355</v>
       </c>
       <c r="F9" s="0">
-        <v>14.346449596203421</v>
+        <v>14.28856192890764</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49452508124601624</v>
+        <v>0.48007737491832508</v>
       </c>
       <c r="H9" s="0">
-        <v>303.03735326335527</v>
+        <v>323.5</v>
       </c>
       <c r="I9" s="0">
-        <v>275.48069067008095</v>
+        <v>219.80000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -371,28 +371,28 @@
         <v>0.37777777777777777</v>
       </c>
       <c r="B10" s="0">
-        <v>32.354725998775336</v>
+        <v>32.911483545124533</v>
       </c>
       <c r="C10" s="0">
-        <v>15.527401733134354</v>
+        <v>15.912043854460453</v>
       </c>
       <c r="D10" s="0">
-        <v>0.47991139636670344</v>
+        <v>0.48347999362118221</v>
       </c>
       <c r="E10" s="0">
-        <v>29.099623959303258</v>
+        <v>29.709409065591764</v>
       </c>
       <c r="F10" s="0">
-        <v>14.367275200993344</v>
+        <v>14.306089190730161</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49372717740567479</v>
+        <v>0.48153395307006946</v>
       </c>
       <c r="H10" s="0">
-        <v>304.94842170047235</v>
+        <v>324</v>
       </c>
       <c r="I10" s="0">
-        <v>282.45012636049216</v>
+        <v>215.80000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -400,28 +400,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B11" s="0">
-        <v>32.198979191003296</v>
+        <v>32.888734484231961</v>
       </c>
       <c r="C11" s="0">
-        <v>15.596597327005927</v>
+        <v>16.050943250644092</v>
       </c>
       <c r="D11" s="0">
-        <v>0.48438173255392414</v>
+        <v>0.48803772788337269</v>
       </c>
       <c r="E11" s="0">
-        <v>28.672796207960268</v>
+        <v>29.589231163023612</v>
       </c>
       <c r="F11" s="0">
-        <v>14.335556654538115</v>
+        <v>14.285377598454215</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49997065338741586</v>
+        <v>0.48278975279040154</v>
       </c>
       <c r="H11" s="0">
-        <v>308.90000000000003</v>
+        <v>324.40000000000003</v>
       </c>
       <c r="I11" s="0">
-        <v>279.03396056378369</v>
+        <v>212.19999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/target_tank_pressure_sweep_results.xlsx
+++ b/Graphs/target_tank_pressure_sweep_results.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="10">
-  <si>
-    <t>UAM target tank pressure (bar)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
+  <si>
+    <t>UAM target tank pressure (MPa)</t>
   </si>
   <si>
     <t>LH2 consumed warm tank refuel (kg)</t>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Time taken for cold tank refuel (s)</t>
-  </si>
-  <si>
-    <t>UAM target tank pressure (MPa)</t>
   </si>
 </sst>
 </file>
@@ -88,26 +85,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="29.28515625" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -136,292 +133,205 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="B2" s="0">
-        <v>33.762646712453936</v>
+        <v>33.716592571232233</v>
       </c>
       <c r="C2" s="0">
-        <v>16.356574130109916</v>
+        <v>16.625082487733856</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48445769875252437</v>
+        <v>0.4930831148672703</v>
       </c>
       <c r="E2" s="0">
-        <v>30.838977303154856</v>
+        <v>30.692318539681914</v>
       </c>
       <c r="F2" s="0">
-        <v>15.683109557138513</v>
+        <v>15.470293349433236</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50854830246053961</v>
+        <v>0.50404446732923702</v>
       </c>
       <c r="H2" s="0">
-        <v>329.30000000000001</v>
+        <v>279</v>
       </c>
       <c r="I2" s="0">
-        <v>236.00000000000006</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.22222222222222224</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="B3" s="0">
-        <v>33.548529061743452</v>
+        <v>33.379962459626306</v>
       </c>
       <c r="C3" s="0">
-        <v>16.19508627363799</v>
+        <v>16.404992277371942</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48273610577179693</v>
+        <v>0.49146227462700387</v>
       </c>
       <c r="E3" s="0">
-        <v>30.706172639245899</v>
+        <v>30.434569896975283</v>
       </c>
       <c r="F3" s="0">
-        <v>15.469887142116356</v>
+        <v>15.254143392322355</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50380382224335318</v>
+        <v>0.50121107161886902</v>
       </c>
       <c r="H3" s="0">
-        <v>325.30000000000001</v>
+        <v>280.5</v>
       </c>
       <c r="I3" s="0">
-        <v>235.20000000000005</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.24444444444444446</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="B4" s="0">
-        <v>33.406646506821239</v>
+        <v>32.937626702550723</v>
       </c>
       <c r="C4" s="0">
-        <v>16.116266148340188</v>
+        <v>16.020203501541154</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48242693695847139</v>
+        <v>0.48638001900423911</v>
       </c>
       <c r="E4" s="0">
-        <v>30.506196411665734</v>
+        <v>30.265392332246343</v>
       </c>
       <c r="F4" s="0">
-        <v>15.078724963656631</v>
+        <v>15.27351488384476</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49428400578613091</v>
+        <v>0.50465279670508523</v>
       </c>
       <c r="H4" s="0">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="I4" s="0">
-        <v>234.80000000000001</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.26666666666666672</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="B5" s="0">
-        <v>33.373382987540182</v>
+        <v>32.894829139135147</v>
       </c>
       <c r="C5" s="0">
-        <v>16.550343932563297</v>
+        <v>16.076635368227418</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49591448187144532</v>
+        <v>0.48872834390560682</v>
       </c>
       <c r="E5" s="0">
-        <v>30.335389903797534</v>
+        <v>30.418916311569646</v>
       </c>
       <c r="F5" s="0">
-        <v>14.494145306877209</v>
+        <v>15.587437489291055</v>
       </c>
       <c r="G5" s="0">
-        <v>0.47779657201843845</v>
+        <v>0.51242579879028993</v>
       </c>
       <c r="H5" s="0">
-        <v>323.20000000000005</v>
+        <v>284</v>
       </c>
       <c r="I5" s="0">
-        <v>236.10000000000002</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.28888888888888892</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="B6" s="0">
-        <v>33.40805339190721</v>
+        <v>33.101173555104523</v>
       </c>
       <c r="C6" s="0">
-        <v>16.581385612385684</v>
+        <v>16.498531321914914</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49632899642103573</v>
+        <v>0.4984273833811152</v>
       </c>
       <c r="E6" s="0">
-        <v>30.080264672843789</v>
+        <v>30.115006824367498</v>
       </c>
       <c r="F6" s="0">
-        <v>14.313056660840751</v>
+        <v>15.477847531645946</v>
       </c>
       <c r="G6" s="0">
-        <v>0.47582881389213499</v>
+        <v>0.51395796195277887</v>
       </c>
       <c r="H6" s="0">
-        <v>323.20000000000005</v>
+        <v>287.5</v>
       </c>
       <c r="I6" s="0">
-        <v>233.79999999999995</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.31111111111111112</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="B7" s="0">
-        <v>33.320096608885798</v>
+        <v>32.977729141068295</v>
       </c>
       <c r="C7" s="0">
-        <v>16.140870485792579</v>
+        <v>16.505658316682037</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48441847799109122</v>
+        <v>0.50050924507494288</v>
       </c>
       <c r="E7" s="0">
-        <v>29.944541511736951</v>
+        <v>30.016325266504019</v>
       </c>
       <c r="F7" s="0">
-        <v>14.293936764808038</v>
+        <v>15.53264458981729</v>
       </c>
       <c r="G7" s="0">
-        <v>0.47734699024212607</v>
+        <v>0.51747322338456148</v>
       </c>
       <c r="H7" s="0">
-        <v>322.20000000000005</v>
+        <v>290.5</v>
       </c>
       <c r="I7" s="0">
-        <v>228.10000000000002</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="B8" s="0">
-        <v>33.080886265203276</v>
+        <v>33.088545983418825</v>
       </c>
       <c r="C8" s="0">
-        <v>16.218665934453472</v>
+        <v>16.769668469796937</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49027301760997155</v>
+        <v>0.50681188826491419</v>
       </c>
       <c r="E8" s="0">
-        <v>29.845887689180969</v>
+        <v>29.680250433670871</v>
       </c>
       <c r="F8" s="0">
-        <v>14.289319855334032</v>
+        <v>15.431517861811173</v>
       </c>
       <c r="G8" s="0">
-        <v>0.47877014093683201</v>
+        <v>0.5199254600731007</v>
       </c>
       <c r="H8" s="0">
-        <v>321.90000000000003</v>
+        <v>295.5</v>
       </c>
       <c r="I8" s="0">
-        <v>223.30000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="B9" s="0">
-        <v>32.995520614791133</v>
-      </c>
-      <c r="C9" s="0">
-        <v>16.382476195827845</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.49650606781103368</v>
-      </c>
-      <c r="E9" s="0">
-        <v>29.763039616975355</v>
-      </c>
-      <c r="F9" s="0">
-        <v>14.28856192890764</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.48007737491832508</v>
-      </c>
-      <c r="H9" s="0">
-        <v>323.5</v>
-      </c>
-      <c r="I9" s="0">
-        <v>219.80000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="B10" s="0">
-        <v>32.911483545124533</v>
-      </c>
-      <c r="C10" s="0">
-        <v>15.912043854460453</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.48347999362118221</v>
-      </c>
-      <c r="E10" s="0">
-        <v>29.709409065591764</v>
-      </c>
-      <c r="F10" s="0">
-        <v>14.306089190730161</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.48153395307006946</v>
-      </c>
-      <c r="H10" s="0">
-        <v>324</v>
-      </c>
-      <c r="I10" s="0">
-        <v>215.80000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="B11" s="0">
-        <v>32.888734484231961</v>
-      </c>
-      <c r="C11" s="0">
-        <v>16.050943250644092</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.48803772788337269</v>
-      </c>
-      <c r="E11" s="0">
-        <v>29.589231163023612</v>
-      </c>
-      <c r="F11" s="0">
-        <v>14.285377598454215</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.48278975279040154</v>
-      </c>
-      <c r="H11" s="0">
-        <v>324.40000000000003</v>
-      </c>
-      <c r="I11" s="0">
-        <v>212.19999999999999</v>
+        <v>259.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/target_tank_pressure_sweep_results.xlsx
+++ b/Graphs/target_tank_pressure_sweep_results.xlsx
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="27" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,205 +133,292 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.26666666666666672</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>33.716592571232233</v>
+        <v>35.315697011557191</v>
       </c>
       <c r="C2" s="0">
-        <v>16.625082487733856</v>
+        <v>16.065638960822948</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4930831148672703</v>
+        <v>0.45491496190958397</v>
       </c>
       <c r="E2" s="0">
-        <v>30.692318539681914</v>
+        <v>31.771073538402177</v>
       </c>
       <c r="F2" s="0">
-        <v>15.470293349433236</v>
+        <v>15.70885557401192</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50404446732923702</v>
+        <v>0.49443892901586689</v>
       </c>
       <c r="H2" s="0">
-        <v>279</v>
+        <v>344.5</v>
       </c>
       <c r="I2" s="0">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.28888888888888892</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="B3" s="0">
-        <v>33.379962459626306</v>
+        <v>35.033236584847053</v>
       </c>
       <c r="C3" s="0">
-        <v>16.404992277371942</v>
+        <v>16.044464300203551</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49146227462700387</v>
+        <v>0.45797836181494211</v>
       </c>
       <c r="E3" s="0">
-        <v>30.434569896975283</v>
+        <v>31.507071554773596</v>
       </c>
       <c r="F3" s="0">
-        <v>15.254143392322355</v>
+        <v>15.37021962322445</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50121107161886902</v>
+        <v>0.48783396440078636</v>
       </c>
       <c r="H3" s="0">
-        <v>280.5</v>
+        <v>340.5</v>
       </c>
       <c r="I3" s="0">
-        <v>246</v>
+        <v>306.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.31111111111111112</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="B4" s="0">
-        <v>32.937626702550723</v>
+        <v>35.048766351915788</v>
       </c>
       <c r="C4" s="0">
-        <v>16.020203501541154</v>
+        <v>16.050439757927816</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48638001900423911</v>
+        <v>0.45794592587851496</v>
       </c>
       <c r="E4" s="0">
-        <v>30.265392332246343</v>
+        <v>31.492974458041402</v>
       </c>
       <c r="F4" s="0">
-        <v>15.27351488384476</v>
+        <v>15.555927288122888</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50465279670508523</v>
+        <v>0.49394912852224548</v>
       </c>
       <c r="H4" s="0">
-        <v>282</v>
+        <v>339.5</v>
       </c>
       <c r="I4" s="0">
-        <v>247</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="B5" s="0">
-        <v>32.894829139135147</v>
+        <v>35.04411062894129</v>
       </c>
       <c r="C5" s="0">
-        <v>16.076635368227418</v>
+        <v>16.054332930524531</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48872834390560682</v>
+        <v>0.45811785896104351</v>
       </c>
       <c r="E5" s="0">
-        <v>30.418916311569646</v>
+        <v>31.000016685765381</v>
       </c>
       <c r="F5" s="0">
-        <v>15.587437489291055</v>
+        <v>15.307358577971483</v>
       </c>
       <c r="G5" s="0">
-        <v>0.51242579879028993</v>
+        <v>0.49378549479943767</v>
       </c>
       <c r="H5" s="0">
-        <v>284</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>249</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.35555555555555557</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="B6" s="0">
-        <v>33.101173555104523</v>
+        <v>34.884950307563855</v>
       </c>
       <c r="C6" s="0">
-        <v>16.498531321914914</v>
+        <v>15.983961992706416</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4984273833811152</v>
+        <v>0.45819076282991655</v>
       </c>
       <c r="E6" s="0">
-        <v>30.115006824367498</v>
+        <v>30.922986449314699</v>
       </c>
       <c r="F6" s="0">
-        <v>15.477847531645946</v>
+        <v>15.427452164300023</v>
       </c>
       <c r="G6" s="0">
-        <v>0.51395796195277887</v>
+        <v>0.49889916646915322</v>
       </c>
       <c r="H6" s="0">
-        <v>287.5</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.37777777777777777</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="B7" s="0">
-        <v>32.977729141068295</v>
+        <v>34.853312064720761</v>
       </c>
       <c r="C7" s="0">
-        <v>16.505658316682037</v>
+        <v>16.143005004685001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50050924507494288</v>
+        <v>0.46316989830717648</v>
       </c>
       <c r="E7" s="0">
-        <v>30.016325266504019</v>
+        <v>30.874636803649494</v>
       </c>
       <c r="F7" s="0">
-        <v>15.53264458981729</v>
+        <v>15.570706850905996</v>
       </c>
       <c r="G7" s="0">
-        <v>0.51747322338456148</v>
+        <v>0.50432032447635078</v>
       </c>
       <c r="H7" s="0">
-        <v>290.5</v>
+        <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>254.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="B8" s="0">
+        <v>34.837641411436522</v>
+      </c>
+      <c r="C8" s="0">
+        <v>16.447660504497392</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.47212325054525489</v>
+      </c>
+      <c r="E8" s="0">
+        <v>30.436454662581703</v>
+      </c>
+      <c r="F8" s="0">
+        <v>15.398609431156212</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.50592651482786266</v>
+      </c>
+      <c r="H8" s="0">
+        <v>339</v>
+      </c>
+      <c r="I8" s="0">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="B9" s="0">
+        <v>34.288170390224941</v>
+      </c>
+      <c r="C9" s="0">
+        <v>16.372208471398825</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.4774885415311137</v>
+      </c>
+      <c r="E9" s="0">
+        <v>30.485265469322101</v>
+      </c>
+      <c r="F9" s="0">
+        <v>15.615691528570721</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.5122373477208223</v>
+      </c>
+      <c r="H9" s="0">
+        <v>339.5</v>
+      </c>
+      <c r="I9" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="B10" s="0">
+        <v>33.901283067048645</v>
+      </c>
+      <c r="C10" s="0">
+        <v>16.375196698862187</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.48302586856302626</v>
+      </c>
+      <c r="E10" s="0">
+        <v>30.324507634697284</v>
+      </c>
+      <c r="F10" s="0">
+        <v>15.655345167319732</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.5162604898952059</v>
+      </c>
+      <c r="H10" s="0">
+        <v>340.5</v>
+      </c>
+      <c r="I10" s="0">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>0.40000000000000002</v>
       </c>
-      <c r="B8" s="0">
-        <v>33.088545983418825</v>
-      </c>
-      <c r="C8" s="0">
-        <v>16.769668469796937</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.50681188826491419</v>
-      </c>
-      <c r="E8" s="0">
-        <v>29.680250433670871</v>
-      </c>
-      <c r="F8" s="0">
-        <v>15.431517861811173</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0.5199254600731007</v>
-      </c>
-      <c r="H8" s="0">
-        <v>295.5</v>
-      </c>
-      <c r="I8" s="0">
-        <v>259.5</v>
+      <c r="B11" s="0">
+        <v>33.834499378848243</v>
+      </c>
+      <c r="C11" s="0">
+        <v>16.532842048523229</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.48863858937007926</v>
+      </c>
+      <c r="E11" s="0">
+        <v>30.075043355939215</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.570415322678304</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.51771879888590289</v>
+      </c>
+      <c r="H11" s="0">
+        <v>344</v>
+      </c>
+      <c r="I11" s="0">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
